--- a/biology/Médecine/Steve_Pieczenik/Steve_Pieczenik.xlsx
+++ b/biology/Médecine/Steve_Pieczenik/Steve_Pieczenik.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Steve R. Pieczenik, né à La Havane, le 7 décembre 1943, est un psychiatre cubain-américain, également auteur de romans d'espionnage et de science-fiction.
 </t>
@@ -511,7 +523,9 @@
           <t>Études et services militaires</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il naît à La Havane, puis vit à Toulouse jusqu'à l'âge de 6 ans. Sa famille émigre à New York, où il fait ses études secondaires au lycée Booker T. Washington de Harlem. Il obtient une licence puis un doctorat en médecine à l'université Cornell grâce à des bourses d'études.
 Durant son service militaire, il travaille à l'hôpital Saint Elizabeth de Washington, puis fait un internat de psychiatrie à l'école de médecine de Harvard tout en suivant des cours de droit. Il obtient deux Harry C. Solomon Awards pour des recherches portant sur la hiérarchie des mécanismes de défense du moi dans la décision de politique étrangère (Hierarchy of Ego Defense Mechanisms in Foreign Policy Decision Making) et les déterminants cognitivo-comportementaux du traitement des patients borderline (Cognitive Behavioral Determinants for the Treatment of Borderline Patients).
@@ -546,12 +560,14 @@
           <t>Controverses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1992, Pieczenik a déclaré à «Newsday» que, selon son opinion professionnelle, le président George H. W. Bush était «cliniquement déprimé». En conséquence, il a été inculpé d'éthique devant l'American Psychiatric Association et réprimandé. Il a ensuite quitté l'APA[1].
-Il se définit lui-même comme un "fauteur de troubles non conformiste. Vous établissez vos propres règles. Vous en payez les conséquences."[2]
-Le rôle qu'il a joué dans les négociations pour la libération de Aldo Moro, un politicien italien kidnappé par les Brigades rouges, est très controversé[3].
-En 2013, Pieczenik a pris la parole dans l'émission de radio d'Alex Jones, niant que la fusillade de Sandy Hook s'était produit comme indiqué, le qualifiant d'attentat sous fausse bannière"[4]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1992, Pieczenik a déclaré à «Newsday» que, selon son opinion professionnelle, le président George H. W. Bush était «cliniquement déprimé». En conséquence, il a été inculpé d'éthique devant l'American Psychiatric Association et réprimandé. Il a ensuite quitté l'APA.
+Il se définit lui-même comme un "fauteur de troubles non conformiste. Vous établissez vos propres règles. Vous en payez les conséquences."
+Le rôle qu'il a joué dans les négociations pour la libération de Aldo Moro, un politicien italien kidnappé par les Brigades rouges, est très controversé.
+En 2013, Pieczenik a pris la parole dans l'émission de radio d'Alex Jones, niant que la fusillade de Sandy Hook s'était produit comme indiqué, le qualifiant d'attentat sous fausse bannière"
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Œuvre</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Mind Palace (1985)
 Blood Heat (1989)
